--- a/BD.xlsx
+++ b/BD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nova\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nova\Desktop\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{639A7D39-20A3-47A2-9186-210E859B4F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029519F7-E1C9-48EB-8CF1-6E3477A34E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE8FBF2F-A55C-4864-A14A-FD2C81396BEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CE8FBF2F-A55C-4864-A14A-FD2C81396BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>Equipo apto para cuidado de recién nacidos</t>
+  </si>
+  <si>
+    <t>Coordinadora</t>
+  </si>
+  <si>
+    <t>Matrona</t>
+  </si>
+  <si>
+    <t>rut</t>
+  </si>
+  <si>
+    <t>clave</t>
   </si>
 </sst>
 </file>
@@ -487,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68A9A21-C0EE-4F92-8EB1-E92885FB4C5F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -733,12 +745,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FEFB7A-299B-4A13-A4FA-DE17693C55D5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>